--- a/document/11. กลุ่มทรัพยากรบุคคล.xlsx
+++ b/document/11. กลุ่มทรัพยากรบุคคล.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2FAD28-6900-477E-A644-9FC5B167A667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F6FB3D-866E-4389-A2D5-9B759975E454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ส่วนขึ้นตรงสายงานบริหาร 1" sheetId="1" r:id="rId1"/>
@@ -1882,12 +1882,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -5124,13 +5124,13 @@
   <dimension ref="A1:X185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -7493,12 +7493,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -11042,12 +11042,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -13917,12 +13917,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -17020,12 +17020,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -17959,12 +17959,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -19010,12 +19010,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -22156,12 +22156,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -24354,12 +24354,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -26845,12 +26845,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -30525,12 +30525,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -32475,12 +32475,12 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -37828,12 +37828,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
